--- a/Teacher/app/src/main/resources/xlsx/export.xlsx
+++ b/Teacher/app/src/main/resources/xlsx/export.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viccrubs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viccrubs\Projects\ClassroomAssistantRemastered\Teacher\app\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF6534-7E68-4231-9026-24DF580E316C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F0851B-4B5A-424D-9DA6-FDD19AFC04D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{C610B1DA-7BC2-4609-97CA-334A39C916D5}"/>
+    <workbookView xWindow="12240" yWindow="2505" windowWidth="14430" windowHeight="10920" firstSheet="1" activeTab="3" xr2:uid="{C610B1DA-7BC2-4609-97CA-334A39C916D5}"/>
   </bookViews>
   <sheets>
     <sheet name="签到信息" sheetId="1" r:id="rId1"/>
     <sheet name="提问信息" sheetId="5" r:id="rId2"/>
-    <sheet name="讨论-讨论1" sheetId="2" r:id="rId3"/>
+    <sheet name="讨论-新技术" sheetId="2" r:id="rId3"/>
     <sheet name="讨论-软件" sheetId="6" r:id="rId4"/>
     <sheet name="练习-1" sheetId="3" r:id="rId5"/>
     <sheet name="练习-2" sheetId="4" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,96 @@
   </si>
   <si>
     <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口和出口函数具体怎么使用呢？</t>
+  </si>
+  <si>
+    <t>运行insmod命令就会运行module_init指定的入口函数吗？</t>
+  </si>
+  <si>
+    <t>新技术出来后，自然有更多更新的劳动力需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我认为不会，因为即使淘汰了低端产业，但技术革新可能会直接或间接地带来新的劳动力的需求量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我认为会，因为技术革新往往提高了某项工作的效率，只需要更少的人力物力就能够完成相同的工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得应该视情况而定，看技术的影响力大不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我同意第一位同学的看法，比如现在工厂引入一些自动化设备之后，工厂就不需要那么多的工人了，劳动量的需求就减少了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是不是常常能看到新闻说一些技术革新增加了许多就业岗位吗，就比如华为的 5G 技术据说预计在 5 年内创造 310 万个就业岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得应该具体情况具体分析，需要同时考量因为这项技术而失去的劳动力需求量，以及这项技术革新带来的新的劳动力需求量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161250011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161250068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161250234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码里那几个宏是什么意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,8 +211,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,14 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA42099-A117-4D8A-9DF6-04D5ADB46705}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,6 +565,78 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>161250011</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.8888888888888888E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.67527777777777775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>161250010</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.6087962962962954E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.66762731481481474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>161250068</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.554398148148149E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.66806712962962955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>161250234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.6307870370370359E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.66736111111111107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>161250013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>161250014</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -473,23 +648,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDD4C23-36D9-41EE-99B6-A2F358DBFE5C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.69060185185185186</v>
+      </c>
+      <c r="B2">
+        <v>161250011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.69108796296296304</v>
+      </c>
+      <c r="B3">
+        <v>161250068</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.71872685185185192</v>
+      </c>
+      <c r="B4">
+        <v>161250010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -500,23 +711,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74EEC69-7809-4CA2-B090-D354F61245A4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.70923611111111118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.71065972222222218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.70929398148148148</v>
+      </c>
+      <c r="B3">
+        <v>161250011</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.7093518518518519</v>
+      </c>
+      <c r="B4">
+        <v>161250010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.70942129629629624</v>
+      </c>
+      <c r="B5">
+        <v>161250068</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.70952546296296293</v>
+      </c>
+      <c r="B6">
+        <v>161250234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.70962962962962972</v>
+      </c>
+      <c r="B7">
+        <v>161250010</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.70983796296296298</v>
+      </c>
+      <c r="B8">
+        <v>161250068</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0.7101736111111111</v>
+      </c>
+      <c r="B9">
+        <v>161250234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -527,24 +832,121 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46875642-4D37-4087-91B7-0936A4E4BCC2}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.71206018518518521</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.7141319444444445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.70929398148148148</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.7093518518518519</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.70942129629629624</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.70952546296296293</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.70962962962962972</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.70983796296296298</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0.7101736111111111</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -554,23 +956,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D764735C-4A4E-4A21-8314-BFE63B103D56}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.73221064814814818</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.73625000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.73357638888888888</v>
+      </c>
+      <c r="B3">
+        <v>161250011</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.73458333333333325</v>
+      </c>
+      <c r="B4">
+        <v>161250010</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.73462962962962963</v>
+      </c>
+      <c r="B5">
+        <v>161250013</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.73496527777777787</v>
+      </c>
+      <c r="B6">
+        <v>161250014</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.7356597222222222</v>
+      </c>
+      <c r="B7">
+        <v>161250068</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -581,23 +1055,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF70EC59-E036-45DA-94AA-0F9DA3BB4E2E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.73761574074074077</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.74180555555555561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.73774305555555564</v>
+      </c>
+      <c r="B3" s="4">
+        <v>161250011</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.7378703703703704</v>
+      </c>
+      <c r="B4" s="4">
+        <v>161250010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.73790509259259263</v>
+      </c>
+      <c r="B5" s="4">
+        <v>161250013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.73995370370370372</v>
+      </c>
+      <c r="B6" s="4">
+        <v>161250014</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.74086805555555557</v>
+      </c>
+      <c r="B7" s="4">
+        <v>161250068</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
